--- a/NhapHangV2.API/Template/SmallPackageTemplate.xlsx
+++ b/NhapHangV2.API/Template/SmallPackageTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51194293-6FC5-42B3-8270-0185D208E8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A761FFF-A289-46D7-86D5-753907392AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{7EFBC397-3785-418C-B0D5-707F677922DA}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -59,9 +51,6 @@
     <t>D x R x C</t>
   </si>
   <si>
-    <t>CÂN NẶNG QĐ (KG)</t>
-  </si>
-  <si>
     <t>TRẠNG THÁI</t>
   </si>
   <si>
@@ -99,6 +88,9 @@
   </si>
   <si>
     <t>[[%Field:Code%]]</t>
+  </si>
+  <si>
+    <t>CÂN TÍNH TIỀN (KG)</t>
   </si>
 </sst>
 </file>
@@ -477,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF66C3B-0599-486B-9F20-E7DF22DE5A4C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -524,48 +516,48 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
